--- a/resources/Random-User-API-Performance-Load-Test-report.xlsx
+++ b/resources/Random-User-API-Performance-Load-Test-report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musfika.jahan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-SDET\Batch-7\Random-User-API-Performance-Test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C0AE1D-D75C-4D48-9AE6-BC5AF5D2C63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{222BCEBA-9B75-4338-9556-EF84540FD3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{257A8658-55D9-4DD3-9D87-B84703341FEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Test Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Server:https://random-data-api.com/api/v2/users</t>
+  </si>
+  <si>
+    <t>Test-5</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +195,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -518,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713DD0CA-2E6F-48AC-ABC9-48B83BE07E35}">
-  <dimension ref="C1:H12"/>
+  <dimension ref="C1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,32 +541,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -694,32 +700,51 @@
       </c>
     </row>
     <row r="11" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1800</v>
+      </c>
+      <c r="G11" s="5">
+        <f>(G6*F11)</f>
+        <v>5000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4">
         <v>2.78</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C1:H2"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
